--- a/заказы/статистика филиалы/2023/12,23/20,12,23 КИ/дв 20,12,23 бррсч Савельев.xlsx
+++ b/заказы/статистика филиалы/2023/12,23/20,12,23 КИ/дв 20,12,23 бррсч Савельев.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2023\12,23\20,12,23 КИ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07BC138F-4B48-4367-916A-20F872BA0041}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{840B480B-3773-454D-8580-2ECB6CEE344C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,7 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TDSheet!$A$3:$Z$127</definedName>
@@ -1107,13 +1108,13 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -6610,6 +6611,9 @@
     <sheetNames>
       <sheetName val="TDSheet"/>
       <sheetName val="Бердянск"/>
+      <sheetName val="Донецк"/>
+      <sheetName val="Луганск"/>
+      <sheetName val="Мелитополь"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
@@ -7721,6 +7725,869 @@
           </cell>
           <cell r="D139">
             <v>681</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>Склад ЛУГАНСК</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>1 КОЛБАСНЫЕ ИЗДЕЛИЯ Мелитополь</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="TDSheet"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>Период: 19.12.2023 - 26.12.2023</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>Номенклатура</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>Ед. изм.</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>005  Колбаса Докторская ГОСТ, Вязанка вектор,ВЕС. ПОКОМ</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>013  Сардельки Вязанка Стародворские NDX, ВЕС.  ПОКОМ</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>014  Сардельки Вязанка Стародворские, СЕМЕЙНАЯ УПАКОВКА, ВЕС, ТМ Стародворские колбасы</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>016  Сосиски Вязанка Молочные, Вязанка вискофан  ВЕС.ПОКОМ</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>017  Сосиски Вязанка Сливочные, Вязанка амицел ВЕС.ПОКОМ</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>023  Колбаса Докторская ГОСТ, Вязанка вектор, 0,4 кг, ПОКОМ</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>030  Сосиски Вязанка Молочные, Вязанка вискофан МГС, 0.45кг, ПОКОМ</v>
+          </cell>
+          <cell r="B12" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>032  Сосиски Вязанка Сливочные, Вязанка амицел МГС, 0.45кг, ПОКОМ</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>034  Сосиски Рубленые, Вязанка вискофан МГС, 0.5кг, ПОКОМ</v>
+          </cell>
+          <cell r="B14" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>036  Колбаса Сервелат Запекуша с сочным окороком, Вязанка 0,35кг,  ПОКОМ</v>
+          </cell>
+          <cell r="B15" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>043  Ветчина Нежная ТМ Особый рецепт, п/а, 0,4кг    ПОКОМ</v>
+          </cell>
+          <cell r="B16" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>058  Колбаса Докторская Особая ТМ Особый рецепт,  0,5кг, ПОКОМ</v>
+          </cell>
+          <cell r="B17" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>059  Колбаса Докторская по-стародворски  0.5 кг, ПОКОМ</v>
+          </cell>
+          <cell r="B18" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>062  Колбаса Кракушка пряная с сальцем, 0.3кг в/у п/к, БАВАРУШКА ПОКОМ</v>
+          </cell>
+          <cell r="B19" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>064  Колбаса Молочная Дугушка, вектор 0,4 кг, ТМ Стародворье  ПОКОМ</v>
+          </cell>
+          <cell r="B20" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>065  Колбаса Молочная по-стародворски, 0,5кг,ПОКОМ</v>
+          </cell>
+          <cell r="B21" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>079  Колбаса Сервелат Кремлевский,  0.35 кг, ПОКОМ</v>
+          </cell>
+          <cell r="B22" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>113  Чипсы сыровяленые из натурального филе, 0,025кг ТМ Ядрена Копоть ПОКОМ</v>
+          </cell>
+          <cell r="B23" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>115  Колбаса Салями Филейбургская зернистая, в/у 0,35 кг срез, БАВАРУШКА ПОКОМ</v>
+          </cell>
+          <cell r="B24" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>116  Колбаса Балыкбурская с копченым балыком, в/у 0,35 кг срез, БАВАРУШКА ПОКОМ</v>
+          </cell>
+          <cell r="B25" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>200  Ветчина Дугушка ТМ Стародворье, вектор в/у    ПОКОМ</v>
+          </cell>
+          <cell r="B26" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>201  Ветчина Нежная ТМ Особый рецепт, (2,5кг), ПОКОМ</v>
+          </cell>
+          <cell r="B27" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>217  Колбаса Докторская Дугушка, ВЕС, НЕ ГОСТ, ТМ Стародворье ПОКОМ</v>
+          </cell>
+          <cell r="B28" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>218  Колбаса Докторская оригинальная ТМ Особый рецепт БОЛЬШОЙ БАТОН, п/а ВЕС, ТМ Стародворье ПОКОМ</v>
+          </cell>
+          <cell r="B29" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>219  Колбаса Докторская Особая ТМ Особый рецепт, ВЕС  ПОКОМ</v>
+          </cell>
+          <cell r="B30" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>223  Колбаса Докторская стародворская, фиброуз ВАКУУМ ВЕС, ТМ Стародворье ПОКОМ</v>
+          </cell>
+          <cell r="B31" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>225  Колбаса Дугушка со шпиком, ВЕС, ТМ Стародворье   ПОКОМ</v>
+          </cell>
+          <cell r="B32" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>229  Колбаса Молочная Дугушка, в/у, ВЕС, ТМ Стародворье   ПОКОМ</v>
+          </cell>
+          <cell r="B33" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>230  Колбаса Молочная Особая ТМ Особый рецепт, п/а, ВЕС. ПОКОМ</v>
+          </cell>
+          <cell r="B34" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>235  Колбаса Особая ТМ Особый рецепт, ВЕС, ТМ Стародворье ПОКОМ</v>
+          </cell>
+          <cell r="B35" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>236  Колбаса Рубленая ЗАПЕЧ. Дугушка ТМ Стародворье, вектор, в/к    ПОКОМ</v>
+          </cell>
+          <cell r="B36" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37" t="str">
+            <v>239  Колбаса Салями запеч Дугушка, оболочка вектор, ВЕС, ТМ Стародворье  ПОКОМ</v>
+          </cell>
+          <cell r="B37" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38" t="str">
+            <v>242  Колбаса Сервелат ЗАПЕЧ.Дугушка ТМ Стародворье, вектор, в/к     ПОКОМ</v>
+          </cell>
+          <cell r="B38" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39" t="str">
+            <v>248  Сардельки Сочные ТМ Особый рецепт,   ПОКОМ</v>
+          </cell>
+          <cell r="B39" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40" t="str">
+            <v>250  Сардельки стародворские с говядиной в обол. NDX, ВЕС. ПОКОМ</v>
+          </cell>
+          <cell r="B40" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41" t="str">
+            <v>254  Сосиски Датские, ВЕС, ТМ КОЛБАСНЫЙ СТАНДАРТ ПОКОМ</v>
+          </cell>
+          <cell r="B41" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42" t="str">
+            <v>255  Сосиски Молочные для завтрака ТМ Особый рецепт, п/а МГС, ВЕС, ТМ Стародворье  ПОКОМ</v>
+          </cell>
+          <cell r="B42" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43" t="str">
+            <v>257  Сосиски Молочные оригинальные ТМ Особый рецепт, ВЕС.   ПОКОМ</v>
+          </cell>
+          <cell r="B43" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44" t="str">
+            <v>263  Шпикачки Стародворские, ВЕС.  ПОКОМ</v>
+          </cell>
+          <cell r="B44" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45" t="str">
+            <v>265  Колбаса Балыкбургская, ВЕС, ТМ Баварушка  ПОКОМ</v>
+          </cell>
+          <cell r="B45" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46" t="str">
+            <v>266  Колбаса Филейбургская с сочным окороком, ВЕС, ТМ Баварушка  ПОКОМ</v>
+          </cell>
+          <cell r="B46" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47" t="str">
+            <v>271  Колбаса Сервелат Левантский ТМ Особый Рецепт, ВЕС. ПОКОМ</v>
+          </cell>
+          <cell r="B47" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48" t="str">
+            <v>273  Сосиски Сочинки с сочной грудинкой, МГС 0.4кг,   ПОКОМ</v>
+          </cell>
+          <cell r="B48" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49" t="str">
+            <v>276  Колбаса Сливушка ТМ Вязанка в оболочке полиамид 0,45 кг  ПОКОМ</v>
+          </cell>
+          <cell r="B49" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50" t="str">
+            <v>299 Колбаса Классическая, Вязанка п/а 0,6кг, ПОКОМ</v>
+          </cell>
+          <cell r="B50" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51" t="str">
+            <v>301  Сосиски Сочинки по-баварски с сыром,  0.4кг, ТМ Стародворье  ПОКОМ</v>
+          </cell>
+          <cell r="B51" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52" t="str">
+            <v>302  Сосиски Сочинки по-баварски,  0.4кг, ТМ Стародворье  ПОКОМ</v>
+          </cell>
+          <cell r="B52" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53" t="str">
+            <v>309  Сосиски Сочинки с сыром 0,4 кг ТМ Стародворье  ПОКОМ</v>
+          </cell>
+          <cell r="B53" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54" t="str">
+            <v>312  Ветчина Филейская ТМ Вязанка ТС Столичная ВЕС  ПОКОМ</v>
+          </cell>
+          <cell r="B54" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55" t="str">
+            <v>313 Колбаса вареная Молокуша ТМ Вязанка в оболочке полиамид. ВЕС  ПОКОМ</v>
+          </cell>
+          <cell r="B55" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56" t="str">
+            <v>314 Колбаса вареная Филейская ТМ Вязанка ТС Классическая в оболочке полиамид.  ПОКОМ</v>
+          </cell>
+          <cell r="B56" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57" t="str">
+            <v>318 Сосиски Датские ТМ Зареченские колбасы ТС Зареченские п полиамид в модифициров  ПОКОМ</v>
+          </cell>
+          <cell r="B57" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58" t="str">
+            <v>320  Сосиски Сочинки с сочным окороком 0,4 кг ТМ Стародворье  ПОКОМ</v>
+          </cell>
+          <cell r="B58" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59" t="str">
+            <v>321 Сосиски Сочинки по-баварски с сыром ТМ Стародворье в оболочке  ПОКОМ</v>
+          </cell>
+          <cell r="B59" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60" t="str">
+            <v>323 Колбаса варенокопченая Балыкбургская рубленая ТМ Баварушка срез 0,35 кг   ПОКОМ</v>
+          </cell>
+          <cell r="B60" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61" t="str">
+            <v>343 Колбаса Докторская оригинальная ТМ Особый рецепт в оболочке полиамид 0,4 кг.  ПОКОМ</v>
+          </cell>
+          <cell r="B61" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62" t="str">
+            <v>347 Паштет печеночный со сливочным маслом ТМ Стародворье ламистер 0,1 кг. Консервы   ПОКОМ</v>
+          </cell>
+          <cell r="B62" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63" t="str">
+            <v>352  Сардельки Сочинки с сыром 0,4 кг ТМ Стародворье   ПОКОМ</v>
+          </cell>
+          <cell r="B63" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64" t="str">
+            <v>355 Сос Молочные для завтрака ОР полиамид мгс 0,4 кг НД СК  ПОКОМ</v>
+          </cell>
+          <cell r="B64" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65" t="str">
+            <v>360 Колбаса варено-копченая  Сервелат Левантский ТМ Особый Рецепт  0,35 кг  ПОКОМ</v>
+          </cell>
+          <cell r="B65" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66" t="str">
+            <v>365 Колбаса Балыковая ТМ Стародворские колбасы ТС Вязанка в вак  ПОКОМ</v>
+          </cell>
+          <cell r="B66" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67" t="str">
+            <v>369 Колбаса Сливушка ТМ Вязанка в оболочке полиамид вес.  ПОКОМ</v>
+          </cell>
+          <cell r="B67" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68" t="str">
+            <v>370 Ветчина Сливушка с индейкой ТМ Вязанка в оболочке полиамид.</v>
+          </cell>
+          <cell r="B68" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69" t="str">
+            <v>371  Сосиски Сочинки Молочные 0,4 кг ТМ Стародворье  ПОКОМ</v>
+          </cell>
+          <cell r="B69" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70" t="str">
+            <v>372  Сосиски Сочинки Сливочные 0,4 кг ТМ Стародворье  ПОКОМ</v>
+          </cell>
+          <cell r="B70" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71" t="str">
+            <v>376  Сардельки Сочинки с сочным окороком ТМ Стародворье полиамид мгс ф/в 0,4 кг СК3</v>
+          </cell>
+          <cell r="B71" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72" t="str">
+            <v>381  Сардельки Сочинки 0,4кг ТМ Стародворье  ПОКОМ</v>
+          </cell>
+          <cell r="B72" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73" t="str">
+            <v>383 Колбаса Сочинка по-европейски с сочной грудиной ТМ Стародворье в оболочке фиброуз в ва  Поком</v>
+          </cell>
+          <cell r="B73" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74" t="str">
+            <v>384  Колбаса Сочинка по-фински с сочным окороком ТМ Стародворье в оболочке фиброуз в ва  Поком</v>
+          </cell>
+          <cell r="B74" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75" t="str">
+            <v>389 Колбаса вареная Мусульманская Халяль ТМ Вязанка Халяль оболочка вектор 0,4 кг АК.  Поком</v>
+          </cell>
+          <cell r="B75" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="A76" t="str">
+            <v>390 Сосиски Восточные Халяль ТМ Вязанка в оболочке полиамид в вакуумной упаковке 0,33 кг  Поком</v>
+          </cell>
+          <cell r="B76" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77" t="str">
+            <v>405 Ветчины пастеризованная «Нежная с филе» Фикс.вес 0,4 п/а ТМ «Особый рецепт»  Поком</v>
+          </cell>
+          <cell r="B77" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="A78" t="str">
+            <v>406 Ветчины Сливушка с индейкой Вязанка Фикс.вес 0,4 П/а Вязанка  Поком</v>
+          </cell>
+          <cell r="B78" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="A79" t="str">
+            <v>408 Вареные колбасы Сливушка Вязанка Фикс.вес 0,375 П/а Вязанка  Поком</v>
+          </cell>
+          <cell r="B79" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="A80" t="str">
+            <v>409 Вареные колбасы Молокуша Вязанка Фикс.вес 0,4 п/а Вязанка  Поком</v>
+          </cell>
+          <cell r="B80" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="A81" t="str">
+            <v>410 В/к колбасы Сервелат Запекуша с говядиной Вязанка Весовые П/а Вязанка  Поком</v>
+          </cell>
+          <cell r="B81" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="A82" t="str">
+            <v>411 Вареные колбасы «Муромская» Весовой п/а ТМ «Зареченские»  Поком</v>
+          </cell>
+          <cell r="B82" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="A83" t="str">
+            <v>412 Вареные колбасы «Молочная с нежным филе» Фикс.вес 0,4 кг п/а ТМ «Особый рецепт»  Поком</v>
+          </cell>
+          <cell r="B83" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="A84" t="str">
+            <v>413 Вареные колбасы пастеризованн «Стародворская без шпика» Фикс.вес 0,4 п/а ТМ «Стародворье»  Поком</v>
+          </cell>
+          <cell r="B84" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="A85" t="str">
+            <v>414 Вареные колбасы Молочная По-стародворски Фирменная Фикс.вес 0,5 П/а Стародворье  Поком</v>
+          </cell>
+          <cell r="B85" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="A86" t="str">
+            <v>415 Вареные колбасы Докторская ГОСТ Золоченная в печи Весовые ц/о в/у Стародворье  Поком</v>
+          </cell>
+          <cell r="B86" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="A87" t="str">
+            <v>416 Вареные колбасы Докторская стародворская Золоченная в печи Весовые ц/о в/у Стародворье  Поком</v>
+          </cell>
+          <cell r="B87" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="A88" t="str">
+            <v>418 С/к колбасы Мини-салями во вкусом бекона Ядрена копоть Фикс.вес 0,05 б/о Ядрена копоть  Поком</v>
+          </cell>
+          <cell r="B88" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="A89" t="str">
+            <v>420 Паштеты «Печеночный с морковью ГОСТ» Фикс.вес 0,1 ТМ «Стародворье»  Поком</v>
+          </cell>
+          <cell r="B89" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="A90" t="str">
+            <v>421 Сардельки Сливушки #минидельки ТМ Вязанка айпил мгс ф/в 0,33 кг  Поком</v>
+          </cell>
+          <cell r="B90" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="A91" t="str">
+            <v>422 Сардельки «Сливушки с сыром #минидельки» ф/в 0,33 айпил ТМ «Вязанка»  Поком</v>
+          </cell>
+          <cell r="B91" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="A92" t="str">
+            <v>423 Сосиски «Сливушки с сыром» ф/в 0,3 п/а ТМ «Вязанка»  Поком</v>
+          </cell>
+          <cell r="B92" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="A93" t="str">
+            <v>424 Сосиски Сливочные Вязанка Сливушки Весовые П/а мгс Вязанка  Поком</v>
+          </cell>
+          <cell r="B93" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="A94" t="str">
+            <v>425 Сосиски «Сочные без свинины» Весовые ТМ «Особый рецепт» 1,3 кг  Поком</v>
+          </cell>
+          <cell r="B94" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="A95" t="str">
+            <v>427 Колбаса вареная Молокуша ТМ Вязанка в оболочке полиамид 0,4 кг.  Поком</v>
+          </cell>
+          <cell r="B95" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="A96" t="str">
+            <v>440 Колбаса Стародворье 450г Сочинка с сочным окороком вар  Поком</v>
+          </cell>
+          <cell r="B96" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="A97" t="str">
+            <v>441 Колбаса Стародворье Докторская стародворская Бордо вар п/а вес  Поком</v>
+          </cell>
+          <cell r="B97" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="A98" t="str">
+            <v>442 Сосиски Вязанка 450г Молокуши Молочные газ/ср  Поком</v>
+          </cell>
+          <cell r="B98" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="A99" t="str">
+            <v>443 Сосиски Вязанка 450г Сливушки Сливочные газ/ср  Поком</v>
+          </cell>
+          <cell r="B99" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="A100" t="str">
+            <v>444 Сосиски Вязанка Молокуши вес  Поком</v>
+          </cell>
+          <cell r="B100" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="A101" t="str">
+            <v>445 Сосиски Стародворье Сочинки Молочные п/а вес  Поком</v>
+          </cell>
+          <cell r="B101" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="A102" t="str">
+            <v>446 Сосиски Баварские с сыром 0,35 кг. ТМ Стародворье в оболочке айпил в модифи газовой среде  Поком</v>
+          </cell>
+          <cell r="B102" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="A103" t="str">
+            <v>451 Сосиски «Баварские» Фикс.вес 0,35 П/а ТМ «Стародворье»  Поком</v>
+          </cell>
+          <cell r="B103" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="A104" t="str">
+            <v>456 Колбаса вареная Сочинка ТМ Стародворье в оболочке полиамид 0,45 кг.Мясной продукт.  Поком</v>
+          </cell>
+          <cell r="B104" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="A105" t="str">
+            <v>БОНУС_096  Сосиски Баварские,  0.42кг,ПОКОМ</v>
+          </cell>
+          <cell r="B105" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="A106" t="str">
+            <v>БОНУС_229  Колбаса Молочная Дугушка, в/у, ВЕС, ТМ Стародворье   ПОКОМ</v>
+          </cell>
+          <cell r="B106" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="A107" t="str">
+            <v>БОНУС_314 Колбаса вареная Филейская ТМ Вязанка ТС Классическая в оболочке полиамид.  ПОКОМ</v>
+          </cell>
+          <cell r="B107" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="A108" t="str">
+            <v>Вареные колбасы «Любительская ГОСТ» Весовой п/а ТМ «Вязанка»</v>
           </cell>
         </row>
       </sheetData>
@@ -8057,8 +8924,8 @@
   <dimension ref="A1:AB127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB84" sqref="AB84"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -8081,7 +8948,7 @@
     <col min="29" max="16384" width="10.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -8089,12 +8956,12 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:27" ht="12.95" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" ht="12.95" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:27" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -8169,7 +9036,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="20" t="s">
@@ -8197,10 +9064,10 @@
       <c r="M4" s="13"/>
       <c r="N4" s="13"/>
       <c r="O4" s="13"/>
-      <c r="P4" s="61" t="s">
+      <c r="P4" s="62" t="s">
         <v>172</v>
       </c>
-      <c r="Q4" s="62"/>
+      <c r="Q4" s="63"/>
       <c r="R4" s="14" t="s">
         <v>121</v>
       </c>
@@ -8220,7 +9087,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -8297,7 +9164,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>8</v>
       </c>
@@ -8381,8 +9248,12 @@
         <f>Q6*H6</f>
         <v>0</v>
       </c>
+      <c r="AB6" s="2" t="str">
+        <f>VLOOKUP(A6,[3]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
-    <row r="7" spans="1:27" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>10</v>
       </c>
@@ -8454,8 +9325,12 @@
         <f t="shared" ref="AA7:AA70" si="6">Q7*H7</f>
         <v>0</v>
       </c>
+      <c r="AB7" s="2" t="str">
+        <f>VLOOKUP(A7,[3]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
-    <row r="8" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>11</v>
       </c>
@@ -8532,8 +9407,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AB8" s="2" t="str">
+        <f>VLOOKUP(A8,[3]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
-    <row r="9" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>12</v>
       </c>
@@ -8614,8 +9493,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AB9" s="2" t="str">
+        <f>VLOOKUP(A9,[3]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
-    <row r="10" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
         <v>13</v>
       </c>
@@ -8685,8 +9568,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AB10" s="2" t="str">
+        <f>VLOOKUP(A10,[3]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="11" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>15</v>
       </c>
@@ -8758,8 +9645,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AB11" s="2" t="str">
+        <f>VLOOKUP(A11,[3]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="12" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
         <v>16</v>
       </c>
@@ -8840,8 +9731,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AB12" s="2" t="str">
+        <f>VLOOKUP(A12,[3]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="13" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>126</v>
       </c>
@@ -8901,8 +9796,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AB13" s="2" t="str">
+        <f>VLOOKUP(A13,[3]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="14" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>17</v>
       </c>
@@ -8977,8 +9876,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AB14" s="2" t="str">
+        <f>VLOOKUP(A14,[3]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="15" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>18</v>
       </c>
@@ -9054,8 +9957,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AB15" s="2" t="str">
+        <f>VLOOKUP(A15,[3]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="16" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="35" t="s">
         <v>19</v>
       </c>
@@ -9129,8 +10036,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AB16" s="2" t="str">
+        <f>VLOOKUP(A16,[3]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="17" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>20</v>
       </c>
@@ -9204,8 +10115,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AB17" s="2" t="str">
+        <f>VLOOKUP(A17,[3]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="18" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>127</v>
       </c>
@@ -9261,8 +10176,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AB18" s="2" t="str">
+        <f>VLOOKUP(A18,[3]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="19" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>21</v>
       </c>
@@ -9339,8 +10258,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AB19" s="2" t="str">
+        <f>VLOOKUP(A19,[3]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="20" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>22</v>
       </c>
@@ -9408,8 +10331,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AB20" s="2" t="str">
+        <f>VLOOKUP(A20,[3]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="21" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="35" t="s">
         <v>23</v>
       </c>
@@ -9485,8 +10412,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AB21" s="2" t="str">
+        <f>VLOOKUP(A21,[3]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="22" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>24</v>
       </c>
@@ -9560,8 +10491,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AB22" s="2" t="str">
+        <f>VLOOKUP(A22,[3]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="23" spans="1:27" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="35" t="s">
         <v>25</v>
       </c>
@@ -9635,8 +10570,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AB23" s="2" t="str">
+        <f>VLOOKUP(A23,[3]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="24" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>26</v>
       </c>
@@ -9720,8 +10659,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AB24" s="2" t="str">
+        <f>VLOOKUP(A24,[3]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
-    <row r="25" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>27</v>
       </c>
@@ -9802,8 +10745,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AB25" s="2" t="str">
+        <f>VLOOKUP(A25,[3]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
-    <row r="26" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>28</v>
       </c>
@@ -9873,8 +10820,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AB26" s="2" t="e">
+        <f>VLOOKUP(A26,[3]TDSheet!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="27" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>29</v>
       </c>
@@ -9955,8 +10906,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AB27" s="2" t="str">
+        <f>VLOOKUP(A27,[3]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
-    <row r="28" spans="1:27" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:28" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="35" t="s">
         <v>30</v>
       </c>
@@ -10032,8 +10987,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AB28" s="2" t="str">
+        <f>VLOOKUP(A28,[3]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
-    <row r="29" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>31</v>
       </c>
@@ -10114,8 +11073,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AB29" s="2" t="str">
+        <f>VLOOKUP(A29,[3]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
-    <row r="30" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>32</v>
       </c>
@@ -10181,8 +11144,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AB30" s="2" t="e">
+        <f>VLOOKUP(A30,[3]TDSheet!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="31" spans="1:27" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:28" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>33</v>
       </c>
@@ -10249,8 +11216,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AB31" s="2" t="str">
+        <f>VLOOKUP(A31,[3]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
-    <row r="32" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>34</v>
       </c>
@@ -10332,8 +11303,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AB32" s="2" t="str">
+        <f>VLOOKUP(A32,[3]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
-    <row r="33" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>35</v>
       </c>
@@ -10419,8 +11394,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AB33" s="2" t="str">
+        <f>VLOOKUP(A33,[3]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
-    <row r="34" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>36</v>
       </c>
@@ -10503,8 +11482,12 @@
         <f t="shared" si="6"/>
         <v>1300</v>
       </c>
+      <c r="AB34" s="2" t="str">
+        <f>VLOOKUP(A34,[3]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
-    <row r="35" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>37</v>
       </c>
@@ -10585,8 +11568,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AB35" s="2" t="str">
+        <f>VLOOKUP(A35,[3]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
-    <row r="36" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
         <v>38</v>
       </c>
@@ -10670,8 +11657,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AB36" s="2" t="str">
+        <f>VLOOKUP(A36,[3]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
-    <row r="37" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>39</v>
       </c>
@@ -10753,8 +11744,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AB37" s="2" t="str">
+        <f>VLOOKUP(A37,[3]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
-    <row r="38" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
         <v>40</v>
       </c>
@@ -10838,8 +11833,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AB38" s="2" t="str">
+        <f>VLOOKUP(A38,[3]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
-    <row r="39" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
         <v>41</v>
       </c>
@@ -10920,8 +11919,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AB39" s="2" t="str">
+        <f>VLOOKUP(A39,[3]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
-    <row r="40" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
         <v>42</v>
       </c>
@@ -11002,8 +12005,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AB40" s="2" t="str">
+        <f>VLOOKUP(A40,[3]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
-    <row r="41" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
         <v>43</v>
       </c>
@@ -11077,8 +12084,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AB41" s="2" t="str">
+        <f>VLOOKUP(A41,[3]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
-    <row r="42" spans="1:27" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:28" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
         <v>44</v>
       </c>
@@ -11156,8 +12167,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AB42" s="2" t="str">
+        <f>VLOOKUP(A42,[3]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
-    <row r="43" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
         <v>45</v>
       </c>
@@ -11238,8 +12253,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AB43" s="2" t="str">
+        <f>VLOOKUP(A43,[3]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
-    <row r="44" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
         <v>46</v>
       </c>
@@ -11307,8 +12326,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AB44" s="2" t="str">
+        <f>VLOOKUP(A44,[3]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
-    <row r="45" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
         <v>47</v>
       </c>
@@ -11389,8 +12412,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AB45" s="2" t="str">
+        <f>VLOOKUP(A45,[3]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
-    <row r="46" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
         <v>48</v>
       </c>
@@ -11467,8 +12494,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AB46" s="2" t="str">
+        <f>VLOOKUP(A46,[3]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
-    <row r="47" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="35" t="s">
         <v>49</v>
       </c>
@@ -11538,8 +12569,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AB47" s="2" t="str">
+        <f>VLOOKUP(A47,[3]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
-    <row r="48" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
         <v>50</v>
       </c>
@@ -11618,8 +12653,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AB48" s="2" t="str">
+        <f>VLOOKUP(A48,[3]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="49" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
         <v>51</v>
       </c>
@@ -11697,8 +12736,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AB49" s="2" t="str">
+        <f>VLOOKUP(A49,[3]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="50" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
         <v>52</v>
       </c>
@@ -11768,8 +12811,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AB50" s="2" t="str">
+        <f>VLOOKUP(A50,[3]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="51" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
         <v>53</v>
       </c>
@@ -11849,8 +12896,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AB51" s="2" t="str">
+        <f>VLOOKUP(A51,[3]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="52" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
         <v>54</v>
       </c>
@@ -11934,8 +12985,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AB52" s="2" t="str">
+        <f>VLOOKUP(A52,[3]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="53" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
         <v>55</v>
       </c>
@@ -12019,8 +13074,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AB53" s="2" t="str">
+        <f>VLOOKUP(A53,[3]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="54" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
         <v>56</v>
       </c>
@@ -12100,8 +13159,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AB54" s="2" t="str">
+        <f>VLOOKUP(A54,[3]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
-    <row r="55" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
         <v>57</v>
       </c>
@@ -12185,8 +13248,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AB55" s="2" t="str">
+        <f>VLOOKUP(A55,[3]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
-    <row r="56" spans="1:27" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:28" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
         <v>58</v>
       </c>
@@ -12270,8 +13337,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AB56" s="2" t="str">
+        <f>VLOOKUP(A56,[3]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
-    <row r="57" spans="1:27" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:28" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
         <v>59</v>
       </c>
@@ -12339,8 +13410,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AB57" s="2" t="e">
+        <f>VLOOKUP(A57,[3]TDSheet!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="58" spans="1:27" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:28" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
         <v>60</v>
       </c>
@@ -12425,8 +13500,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AB58" s="2" t="str">
+        <f>VLOOKUP(A58,[3]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
-    <row r="59" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
         <v>61</v>
       </c>
@@ -12510,8 +13589,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AB59" s="2" t="str">
+        <f>VLOOKUP(A59,[3]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="60" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
         <v>62</v>
       </c>
@@ -12586,8 +13669,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AB60" s="2" t="str">
+        <f>VLOOKUP(A60,[3]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
-    <row r="61" spans="1:27" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:28" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
         <v>63</v>
       </c>
@@ -12663,8 +13750,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AB61" s="2" t="str">
+        <f>VLOOKUP(A61,[3]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="62" spans="1:27" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:28" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="35" t="s">
         <v>64</v>
       </c>
@@ -12740,8 +13831,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AB62" s="2" t="str">
+        <f>VLOOKUP(A62,[3]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="63" spans="1:27" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:28" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
         <v>65</v>
       </c>
@@ -12813,8 +13908,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AB63" s="2" t="e">
+        <f>VLOOKUP(A63,[3]TDSheet!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="64" spans="1:27" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:28" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
         <v>66</v>
       </c>
@@ -12888,8 +13987,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AB64" s="2" t="str">
+        <f>VLOOKUP(A64,[3]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="65" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
         <v>67</v>
       </c>
@@ -12969,8 +14072,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AB65" s="2" t="str">
+        <f>VLOOKUP(A65,[3]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="66" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
         <v>128</v>
       </c>
@@ -13038,8 +14145,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AB66" s="2" t="str">
+        <f>VLOOKUP(A66,[3]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="67" spans="1:27" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:28" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="35" t="s">
         <v>68</v>
       </c>
@@ -13115,8 +14226,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AB67" s="2" t="str">
+        <f>VLOOKUP(A67,[3]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="68" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="35" t="s">
         <v>69</v>
       </c>
@@ -13196,8 +14311,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AB68" s="2" t="str">
+        <f>VLOOKUP(A68,[3]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
-    <row r="69" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
         <v>70</v>
       </c>
@@ -13281,8 +14400,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AB69" s="2" t="str">
+        <f>VLOOKUP(A69,[3]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
-    <row r="70" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
         <v>71</v>
       </c>
@@ -13366,8 +14489,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AB70" s="2" t="str">
+        <f>VLOOKUP(A70,[3]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
-    <row r="71" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
         <v>72</v>
       </c>
@@ -13451,8 +14578,12 @@
         <f t="shared" ref="AA71:AA113" si="14">Q71*H71</f>
         <v>0</v>
       </c>
+      <c r="AB71" s="2" t="str">
+        <f>VLOOKUP(A71,[3]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="72" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
         <v>73</v>
       </c>
@@ -13536,8 +14667,12 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="AB72" s="2" t="str">
+        <f>VLOOKUP(A72,[3]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="73" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
         <v>74</v>
       </c>
@@ -13621,8 +14756,12 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="AB73" s="2" t="str">
+        <f>VLOOKUP(A73,[3]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="74" spans="1:27" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:28" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
         <v>75</v>
       </c>
@@ -13703,8 +14842,12 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="AB74" s="2" t="str">
+        <f>VLOOKUP(A74,[3]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
-    <row r="75" spans="1:27" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:28" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="8" t="s">
         <v>76</v>
       </c>
@@ -13785,8 +14928,12 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="AB75" s="2" t="str">
+        <f>VLOOKUP(A75,[3]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
-    <row r="76" spans="1:27" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:28" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
         <v>77</v>
       </c>
@@ -13868,8 +15015,12 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="AB76" s="2" t="str">
+        <f>VLOOKUP(A76,[3]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="77" spans="1:27" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:28" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="35" t="s">
         <v>78</v>
       </c>
@@ -13947,8 +15098,12 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="AB77" s="2" t="str">
+        <f>VLOOKUP(A77,[3]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="78" spans="1:27" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:28" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
         <v>79</v>
       </c>
@@ -14020,8 +15175,12 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="AB78" s="2" t="str">
+        <f>VLOOKUP(A78,[3]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="79" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
         <v>80</v>
       </c>
@@ -14095,8 +15254,12 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="AB79" s="2" t="str">
+        <f>VLOOKUP(A79,[3]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="80" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="35" t="s">
         <v>81</v>
       </c>
@@ -14171,6 +15334,10 @@
       <c r="AA80" s="2">
         <f t="shared" si="14"/>
         <v>0</v>
+      </c>
+      <c r="AB80" s="2" t="str">
+        <f>VLOOKUP(A80,[3]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
       </c>
     </row>
     <row r="81" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -14239,6 +15406,10 @@
       <c r="AA81" s="2">
         <f t="shared" si="14"/>
         <v>0</v>
+      </c>
+      <c r="AB81" s="2" t="str">
+        <f>VLOOKUP(A81,[3]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
       </c>
     </row>
     <row r="82" spans="1:28" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -14315,6 +15486,10 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="AB82" s="2" t="str">
+        <f>VLOOKUP(A82,[3]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
     <row r="83" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
@@ -14384,6 +15559,10 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="AB83" s="2" t="str">
+        <f>VLOOKUP(A83,[3]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
     <row r="84" spans="1:28" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="8" t="s">
@@ -14459,6 +15638,10 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="AB84" s="2" t="str">
+        <f>VLOOKUP(A84,[3]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
     <row r="85" spans="1:28" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="8" t="s">
@@ -14534,6 +15717,10 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="AB85" s="2" t="str">
+        <f>VLOOKUP(A85,[3]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
     <row r="86" spans="1:28" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="35" t="s">
@@ -14608,6 +15795,10 @@
       <c r="AA86" s="2">
         <f t="shared" si="14"/>
         <v>0</v>
+      </c>
+      <c r="AB86" s="2" t="str">
+        <f>VLOOKUP(A86,[3]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
       </c>
     </row>
     <row r="87" spans="1:28" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -14684,6 +15875,10 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="AB87" s="2" t="str">
+        <f>VLOOKUP(A87,[3]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
     <row r="88" spans="1:28" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="8" t="s">
@@ -14759,6 +15954,10 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="AB88" s="2" t="str">
+        <f>VLOOKUP(A88,[3]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
     <row r="89" spans="1:28" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="35" t="s">
@@ -14835,6 +16034,10 @@
       <c r="AA89" s="2">
         <f t="shared" si="14"/>
         <v>0</v>
+      </c>
+      <c r="AB89" s="2" t="str">
+        <f>VLOOKUP(A89,[3]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
       </c>
     </row>
     <row r="90" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -14914,6 +16117,10 @@
       <c r="AA90" s="2">
         <f t="shared" si="14"/>
         <v>0</v>
+      </c>
+      <c r="AB90" s="2" t="str">
+        <f>VLOOKUP(A90,[3]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
       </c>
     </row>
     <row r="91" spans="1:28" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -14986,6 +16193,10 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="AB91" s="2" t="str">
+        <f>VLOOKUP(A91,[3]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
     <row r="92" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="8" t="s">
@@ -15063,6 +16274,10 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="AB92" s="2" t="str">
+        <f>VLOOKUP(A92,[3]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
     <row r="93" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="8" t="s">
@@ -15138,6 +16353,10 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="AB93" s="2" t="str">
+        <f>VLOOKUP(A93,[3]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
     <row r="94" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="8" t="s">
@@ -15213,6 +16432,10 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="AB94" s="2" t="str">
+        <f>VLOOKUP(A94,[3]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
     <row r="95" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="27" t="s">
@@ -15293,6 +16516,10 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="AB95" s="2" t="str">
+        <f>VLOOKUP(A95,[3]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
     <row r="96" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="27" t="s">
@@ -15373,11 +16600,11 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AB96" s="63" t="s">
+      <c r="AB96" s="61" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="97" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="8" t="s">
         <v>98</v>
       </c>
@@ -15456,8 +16683,12 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="AB97" s="2" t="str">
+        <f>VLOOKUP(A97,[3]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="98" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="8" t="s">
         <v>99</v>
       </c>
@@ -15528,8 +16759,12 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="AB98" s="2" t="str">
+        <f>VLOOKUP(A98,[3]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
-    <row r="99" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="8" t="s">
         <v>100</v>
       </c>
@@ -15598,7 +16833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="59" t="s">
         <v>101</v>
       </c>
@@ -15675,8 +16910,12 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="AB100" s="2" t="str">
+        <f>VLOOKUP(A100,[3]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="101" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="8" t="s">
         <v>102</v>
       </c>
@@ -15741,7 +16980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="8" t="s">
         <v>103</v>
       </c>
@@ -15825,8 +17064,12 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="AB102" s="2" t="str">
+        <f>VLOOKUP(A102,[3]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
-    <row r="103" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="26" t="s">
         <v>125</v>
       </c>
@@ -15888,8 +17131,12 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="AB103" s="2" t="str">
+        <f>VLOOKUP(A103,[3]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="104" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="8" t="s">
         <v>104</v>
       </c>
@@ -15964,8 +17211,12 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="AB104" s="2" t="str">
+        <f>VLOOKUP(A104,[3]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="105" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="8" t="s">
         <v>105</v>
       </c>
@@ -16030,7 +17281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="8" t="s">
         <v>106</v>
       </c>
@@ -16101,7 +17352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:27" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:28" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="8" t="s">
         <v>107</v>
       </c>
@@ -16164,7 +17415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:27" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:28" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="31" t="s">
         <v>166</v>
       </c>
@@ -16189,8 +17440,12 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="AB108" s="2" t="str">
+        <f>VLOOKUP(A108,[3]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="109" spans="1:27" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:28" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="32" t="s">
         <v>167</v>
       </c>
@@ -16215,8 +17470,12 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="AB109" s="2" t="e">
+        <f>VLOOKUP(A109,[3]TDSheet!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="110" spans="1:27" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:28" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="31" t="s">
         <v>168</v>
       </c>
@@ -16241,8 +17500,12 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="AB110" s="2" t="e">
+        <f>VLOOKUP(A110,[3]TDSheet!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="111" spans="1:27" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:28" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="31" t="s">
         <v>169</v>
       </c>
@@ -16267,8 +17530,12 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="AB111" s="2" t="str">
+        <f>VLOOKUP(A111,[3]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="112" spans="1:27" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:28" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="31" t="s">
         <v>170</v>
       </c>
@@ -16293,8 +17560,12 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="AB112" s="2" t="e">
+        <f>VLOOKUP(A112,[3]TDSheet!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="113" spans="1:27" ht="11.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:28" ht="11.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="32" t="s">
         <v>171</v>
       </c>
@@ -16321,7 +17592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:27" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:28" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="36" t="s">
         <v>131</v>
       </c>
@@ -16331,8 +17602,12 @@
       <c r="S114" s="33" t="s">
         <v>145</v>
       </c>
+      <c r="AB114" s="2" t="e">
+        <f>VLOOKUP(A114,[3]TDSheet!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="115" spans="1:27" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:28" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="36" t="s">
         <v>132</v>
       </c>
@@ -16342,8 +17617,12 @@
       <c r="S115" s="33" t="s">
         <v>147</v>
       </c>
+      <c r="AB115" s="2" t="e">
+        <f>VLOOKUP(A115,[3]TDSheet!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="116" spans="1:27" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:28" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="38" t="s">
         <v>133</v>
       </c>
@@ -16353,8 +17632,12 @@
       <c r="S116" s="33" t="s">
         <v>148</v>
       </c>
+      <c r="AB116" s="2" t="e">
+        <f>VLOOKUP(A116,[3]TDSheet!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="117" spans="1:27" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:28" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="36" t="s">
         <v>134</v>
       </c>
@@ -16364,8 +17647,12 @@
       <c r="S117" s="33" t="s">
         <v>149</v>
       </c>
+      <c r="AB117" s="2" t="e">
+        <f>VLOOKUP(A117,[3]TDSheet!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="118" spans="1:27" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:28" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="36" t="s">
         <v>135</v>
       </c>
@@ -16375,8 +17662,12 @@
       <c r="S118" s="33" t="s">
         <v>150</v>
       </c>
+      <c r="AB118" s="2" t="e">
+        <f>VLOOKUP(A118,[3]TDSheet!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="119" spans="1:27" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:28" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="36" t="s">
         <v>136</v>
       </c>
@@ -16386,8 +17677,12 @@
       <c r="S119" s="33" t="s">
         <v>151</v>
       </c>
+      <c r="AB119" s="2" t="e">
+        <f>VLOOKUP(A119,[3]TDSheet!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="120" spans="1:27" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:28" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="36" t="s">
         <v>137</v>
       </c>
@@ -16397,8 +17692,12 @@
       <c r="S120" s="33" t="s">
         <v>152</v>
       </c>
+      <c r="AB120" s="2" t="e">
+        <f>VLOOKUP(A120,[3]TDSheet!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="121" spans="1:27" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:28" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="36" t="s">
         <v>138</v>
       </c>
@@ -16408,8 +17707,12 @@
       <c r="S121" s="33" t="s">
         <v>153</v>
       </c>
+      <c r="AB121" s="2" t="e">
+        <f>VLOOKUP(A121,[3]TDSheet!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="122" spans="1:27" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:28" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="36" t="s">
         <v>139</v>
       </c>
@@ -16419,8 +17722,12 @@
       <c r="S122" s="33" t="s">
         <v>154</v>
       </c>
+      <c r="AB122" s="2" t="e">
+        <f>VLOOKUP(A122,[3]TDSheet!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="123" spans="1:27" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:28" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="36" t="s">
         <v>140</v>
       </c>
@@ -16430,8 +17737,12 @@
       <c r="S123" s="33" t="s">
         <v>157</v>
       </c>
+      <c r="AB123" s="2" t="e">
+        <f>VLOOKUP(A123,[3]TDSheet!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="124" spans="1:27" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:28" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="36" t="s">
         <v>141</v>
       </c>
@@ -16441,8 +17752,12 @@
       <c r="S124" s="33" t="s">
         <v>158</v>
       </c>
+      <c r="AB124" s="2" t="e">
+        <f>VLOOKUP(A124,[3]TDSheet!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="125" spans="1:27" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:28" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="36" t="s">
         <v>142</v>
       </c>
@@ -16452,8 +17767,12 @@
       <c r="S125" s="33" t="s">
         <v>160</v>
       </c>
+      <c r="AB125" s="2" t="e">
+        <f>VLOOKUP(A125,[3]TDSheet!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="126" spans="1:27" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:28" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="36" t="s">
         <v>143</v>
       </c>
@@ -16463,8 +17782,12 @@
       <c r="S126" s="33" t="s">
         <v>162</v>
       </c>
+      <c r="AB126" s="2" t="e">
+        <f>VLOOKUP(A126,[3]TDSheet!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
     </row>
-    <row r="127" spans="1:27" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:28" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="36" t="s">
         <v>144</v>
       </c>
@@ -16473,6 +17796,10 @@
       </c>
       <c r="S127" s="33" t="s">
         <v>164</v>
+      </c>
+      <c r="AB127" s="2" t="e">
+        <f>VLOOKUP(A127,[3]TDSheet!$A:$B,2,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
